--- a/PROFORMA N1V6.xlsx
+++ b/PROFORMA N1V6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesareo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A75F0B0-DDFC-465E-8187-A1F1C22B7127}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7520096D-32E2-459B-BB11-05DF9DA4BBE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="4920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,6 +1511,61 @@
         <a:xfrm>
           <a:off x="8181975" y="57150"/>
           <a:ext cx="1296538" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E321EBC-6133-42AE-A8A4-16C3A5F30D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781551" y="9525"/>
+          <a:ext cx="990600" cy="560281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3417,7 +3472,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3777,5 +3832,6 @@
   <headerFooter>
     <oddFooter>&amp;R&amp;"-,Cursiva"&amp;8&amp;F /&amp;A</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>